--- a/excel_routes/route_ELQ_CAI_threats.xlsx
+++ b/excel_routes/route_ELQ_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -691,17 +691,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>-21</v>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,30 +781,30 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>422</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>12</v>
+        <v>-22</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>422</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,26 +871,26 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>506</v>
+        <v>400</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>422</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>84</v>
+        <v>-22</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,17 +916,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-57</v>
+        <v>-21</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,17 +961,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-56</v>
+        <v>-22</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,26 +1006,26 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>594</v>
+        <v>401</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>457</v>
+        <v>422</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>137</v>
+        <v>-21</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,30 +1051,30 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>745</v>
+        <v>434</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>787</v>
+        <v>422</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-42</v>
+        <v>12</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J13" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>745</v>
+        <v>400</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>787</v>
+        <v>422</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-42</v>
+        <v>-22</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,26 +1141,26 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1022</v>
+        <v>401</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>787</v>
+        <v>422</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>235</v>
+        <v>-21</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,30 +1186,30 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>812</v>
+        <v>506</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1357</v>
+        <v>422</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-545</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J16" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1235,13 +1235,13 @@
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>950</v>
+        <v>400</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1357</v>
+        <v>457</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-407</v>
+        <v>-57</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1252,9 +1252,9 @@
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J17" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1280,13 +1280,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>950</v>
+        <v>401</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1357</v>
+        <v>457</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-407</v>
+        <v>-56</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1297,9 +1297,9 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J18" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,30 +1321,30 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1537</v>
+        <v>457</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-932</v>
+        <v>137</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J19" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1373,10 +1373,10 @@
         <v>745</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1537</v>
+        <v>787</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-792</v>
+        <v>-42</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1387,9 +1387,9 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1450</v>
+        <v>745</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1537</v>
+        <v>787</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-87</v>
+        <v>-42</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,30 +1456,30 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>525</v>
+        <v>1022</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2233</v>
+        <v>787</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1708</v>
+        <v>235</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>745</v>
+        <v>850</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1488</v>
+        <v>-507</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,26 +1546,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>822</v>
+        <v>950</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-1411</v>
+        <v>-407</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>845</v>
+        <v>1250</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-1388</v>
+        <v>-107</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1612,9 +1612,9 @@
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>650</v>
+        <v>631</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2233</v>
+        <v>1537</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-1583</v>
+        <v>-906</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,17 +1681,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
         <v>745</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2233</v>
+        <v>1537</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-1488</v>
+        <v>-792</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>30</v>
@@ -1716,43 +1716,358 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
+          <t>28-MAR-26</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>SM-428</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-116</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>1450</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>1537</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>-87</v>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>SM-428</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>Air Arabia Egypt E5-592</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>525</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>2233</v>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>-1708</v>
+      </c>
+      <c r="G29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>SM-428</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>Nesma Airlines NE-141</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>745</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>2233</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>-1488</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>SM-428</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>EgyptAir MS-634</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>822</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>2233</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>-1411</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>-16</v>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>01-APR-26</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>SM-428</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-106</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>845</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>2233</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>-1388</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
           <t>03-APR-26</t>
         </is>
       </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>SM-428</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-106</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>650</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>2233</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>-1583</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>03-APR-26</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>SM-428</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>Nile Air NP-116</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>745</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>2233</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>-1488</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>SAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>03-APR-26</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>SM-428</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
         <is>
           <t>EgyptAir MS-634</t>
         </is>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D35" s="2" t="n">
         <v>1247</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E35" s="2" t="n">
         <v>2233</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F35" s="2" t="n">
         <v>-986</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G35" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I28" s="2" t="n">
+      <c r="H35" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="J35" s="5" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
-      <c r="K28" s="2" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_ELQ_CAI_threats.xlsx
+++ b/excel_routes/route_ELQ_CAI_threats.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-2</v>
+        <v>-21</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,17 +601,17 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-2</v>
+        <v>-21</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -636,7 +636,7 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>01-FEB-26</t>
+          <t>05-FEB-26</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
@@ -646,26 +646,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>371</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-21</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>07-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>08-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,26 +781,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>506</v>
+        <v>350</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>371</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>135</v>
+        <v>-21</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>63</v>
+        <v>-21</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>135</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>46</v>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>28-FEB-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>422</v>
+        <v>457</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-22</v>
+        <v>-13</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>401</v>
+        <v>745</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>422</v>
+        <v>787</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-21</v>
+        <v>-42</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1096,26 +1096,26 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>594</v>
+        <v>745</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>422</v>
+        <v>787</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>172</v>
+        <v>-42</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>422</v>
+        <v>877</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-22</v>
+        <v>-177</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>400</v>
+        <v>781</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>422</v>
+        <v>787</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-22</v>
+        <v>-6</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>15-FEB-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,17 +1231,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>401</v>
+        <v>845</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>422</v>
+        <v>877</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-21</v>
+        <v>-32</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>19-FEB-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>375</v>
+        <v>845</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>397</v>
+        <v>877</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-22</v>
+        <v>-32</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,30 +1321,30 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>400</v>
+        <v>840</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>457</v>
+        <v>877</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-57</v>
+        <v>-37</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J19" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>434</v>
+        <v>1040</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>457</v>
+        <v>877</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-23</v>
+        <v>163</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>46</v>
@@ -1387,9 +1387,9 @@
       <c r="I20" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J20" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J20" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,30 +1411,30 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>456</v>
+        <v>1040</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>517</v>
+        <v>1177</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-61</v>
+        <v>-137</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>745</v>
+        <v>1080</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>787</v>
+        <v>1177</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-42</v>
+        <v>-97</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,26 +1501,26 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>745</v>
+        <v>1040</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>787</v>
+        <v>877</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-42</v>
+        <v>163</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J23" s="3" t="inlineStr">
         <is>
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,30 +1546,30 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1022</v>
+        <v>850</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>787</v>
+        <v>1357</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>235</v>
+        <v>-507</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J24" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,30 +1591,30 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>822</v>
+        <v>950</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>787</v>
+        <v>1357</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>35</v>
+        <v>-407</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J25" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,26 +1636,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>822</v>
+        <v>1081</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>787</v>
+        <v>1357</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>35</v>
+        <v>-276</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,26 +1681,26 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>822</v>
+        <v>668</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1177</v>
+        <v>1537</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-355</v>
+        <v>-869</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>822</v>
+        <v>1040</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>787</v>
+        <v>1537</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>35</v>
+        <v>-497</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>46</v>
@@ -1747,9 +1747,9 @@
       <c r="I28" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>850</v>
+        <v>1080</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1357</v>
+        <v>1537</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-507</v>
+        <v>-457</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1080</v>
+        <v>745</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1357</v>
+        <v>2233</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-277</v>
+        <v>-1488</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>30</v>
@@ -1837,9 +1837,9 @@
       <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,17 +1861,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1081</v>
+        <v>845</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1357</v>
+        <v>2233</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-276</v>
+        <v>-1388</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>30</v>
@@ -1882,9 +1882,9 @@
       <c r="I31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1910,13 +1910,13 @@
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1247</v>
+        <v>1040</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1357</v>
+        <v>2233</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-110</v>
+        <v>-1193</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>46</v>
@@ -1927,9 +1927,9 @@
       <c r="I32" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J32" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1537</v>
+        <v>2233</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-906</v>
+        <v>-1583</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>30</v>
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,26 +1996,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>1022</v>
+        <v>745</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1537</v>
+        <v>2233</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-515</v>
+        <v>-1488</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="inlineStr">
         <is>
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,26 +2041,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1080</v>
+        <v>1495</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1537</v>
+        <v>2233</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-457</v>
+        <v>-738</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J35" s="5" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2086,26 +2086,26 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>525</v>
+        <v>840</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-1708</v>
+        <v>-517</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,17 +2131,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>745</v>
+        <v>1250</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-1488</v>
+        <v>-107</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>30</v>
@@ -2152,9 +2152,9 @@
       <c r="I37" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2166,7 +2166,7 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
@@ -2176,26 +2176,26 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>845</v>
+        <v>1040</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-1388</v>
+        <v>-317</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J38" s="5" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
@@ -2221,30 +2221,30 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1022</v>
+        <v>1167</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-1211</v>
+        <v>-190</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J39" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
@@ -2256,7 +2256,7 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
@@ -2270,13 +2270,13 @@
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>650</v>
+        <v>1250</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-1583</v>
+        <v>-107</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>30</v>
@@ -2287,9 +2287,9 @@
       <c r="I40" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
@@ -2301,7 +2301,7 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
@@ -2311,17 +2311,17 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>745</v>
+        <v>1250</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-1488</v>
+        <v>-107</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>30</v>
@@ -2332,9 +2332,9 @@
       <c r="I41" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J41" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
@@ -2346,7 +2346,7 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
@@ -2356,30 +2356,30 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-986</v>
+        <v>-107</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J42" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
@@ -2391,7 +2391,7 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
@@ -2405,13 +2405,13 @@
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>822</v>
+        <v>1495</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>1357</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-535</v>
+        <v>138</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>46</v>
@@ -2422,9 +2422,9 @@
       <c r="I43" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J43" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
@@ -2436,7 +2436,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2481,7 +2481,7 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>822</v>
+        <v>1495</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>1357</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-535</v>
+        <v>138</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>46</v>
@@ -2512,9 +2512,9 @@
       <c r="I45" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J45" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J45" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
@@ -2526,7 +2526,7 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>20-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
@@ -2536,348 +2536,33 @@
       </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>1168</v>
+        <v>490</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1357</v>
+        <v>577</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-189</v>
+        <v>-87</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J46" s="4" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>20-MAY-26</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-116</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>1477</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>1477</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>120</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>472</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>457</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J53" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_ELQ_CAI_threats.xlsx
+++ b/excel_routes/route_ELQ_CAI_threats.xlsx
@@ -54,14 +54,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
+        <fgColor rgb="00F8D7DA"/>
+        <bgColor rgb="00F8D7DA"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8D7DA"/>
-        <bgColor rgb="00F8D7DA"/>
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,7 +546,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>31-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -556,26 +556,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-21</v>
+        <v>193</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>05-FEB-26</t>
+          <t>01-FEB-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
@@ -601,26 +601,26 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>371</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-21</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
@@ -646,26 +646,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>524</v>
+        <v>364</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>371</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>153</v>
+        <v>-7</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-21</v>
+        <v>-22</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -726,7 +726,7 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>07-FEB-26</t>
+          <t>12-FEB-26</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
@@ -736,14 +736,14 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>-21</v>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>08-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -785,13 +785,13 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>371</v>
+        <v>473</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-21</v>
+        <v>-73</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30</v>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>12-FEB-26</t>
+          <t>14-FEB-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-22</v>
+        <v>-66</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>15-FEB-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -878,10 +878,10 @@
         <v>400</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-22</v>
+        <v>-73</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30</v>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>14-FEB-26</t>
+          <t>26-FEB-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,26 +916,26 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>401</v>
+        <v>612</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-21</v>
+        <v>215</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="3" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>26-FEB-26</t>
+          <t>05-MAR-26</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
@@ -961,26 +961,26 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>524</v>
+        <v>775</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>457</v>
+        <v>877</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>67</v>
+        <v>-102</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
@@ -1006,17 +1006,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>444</v>
+        <v>845</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>457</v>
+        <v>877</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-13</v>
+        <v>-32</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1041,7 +1041,7 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>08-MAR-26</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>745</v>
+        <v>845</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>787</v>
+        <v>877</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-42</v>
+        <v>-32</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1086,7 +1086,7 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
@@ -1100,13 +1100,13 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>745</v>
+        <v>1250</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>787</v>
+        <v>1357</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-42</v>
+        <v>-107</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>30</v>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>700</v>
+        <v>1280</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>877</v>
+        <v>1357</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-177</v>
+        <v>-77</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>07-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1190,13 +1190,13 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>781</v>
+        <v>887</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>787</v>
+        <v>1357</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-6</v>
+        <v>-470</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1207,9 +1207,9 @@
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J16" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,17 +1231,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>845</v>
+        <v>950</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>877</v>
+        <v>1357</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-32</v>
+        <v>-407</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1252,9 +1252,9 @@
       <c r="I17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J17" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J17" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>08-MAR-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
@@ -1276,17 +1276,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>845</v>
+        <v>1081</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>877</v>
+        <v>1357</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-32</v>
+        <v>-276</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1297,9 +1297,9 @@
       <c r="I18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,7 +1311,7 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>12-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
@@ -1321,30 +1321,30 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>840</v>
+        <v>706</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>877</v>
+        <v>1537</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-37</v>
+        <v>-831</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>14-MAR-26</t>
+          <t>28-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1366,30 +1366,30 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1040</v>
+        <v>1080</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>877</v>
+        <v>1537</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>163</v>
+        <v>-457</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J20" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,30 +1411,30 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1040</v>
+        <v>551</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1177</v>
+        <v>2233</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-137</v>
+        <v>-1682</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J21" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1460,13 +1460,13 @@
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1080</v>
+        <v>845</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1177</v>
+        <v>2233</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-97</v>
+        <v>-1388</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1477,9 +1477,9 @@
       <c r="I22" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+      <c r="J22" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,30 +1501,30 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1040</v>
+        <v>950</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>877</v>
+        <v>2233</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>163</v>
+        <v>-1283</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J23" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>01-APR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,28 +1546,28 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>850</v>
+        <v>1040</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1357</v>
+        <v>2233</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-507</v>
+        <v>-1193</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J24" s="4" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1595,13 +1595,13 @@
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>950</v>
+        <v>650</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1357</v>
+        <v>2233</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-407</v>
+        <v>-1583</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1612,7 +1612,7 @@
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="5" t="inlineStr">
+      <c r="J25" s="4" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1081</v>
+        <v>745</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1357</v>
+        <v>2233</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-276</v>
+        <v>-1488</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>03-APR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,28 +1681,28 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>668</v>
+        <v>1265</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1537</v>
+        <v>2233</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-869</v>
+        <v>-968</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1730,13 +1730,13 @@
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1040</v>
+        <v>840</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1537</v>
+        <v>1357</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-497</v>
+        <v>-517</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>46</v>
@@ -1747,7 +1747,7 @@
       <c r="I28" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J28" s="5" t="inlineStr">
+      <c r="J28" s="4" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>19-MAY-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,17 +1771,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1080</v>
+        <v>1250</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>1537</v>
+        <v>1357</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-457</v>
+        <v>-107</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30</v>
@@ -1792,9 +1792,9 @@
       <c r="I29" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,28 +1816,28 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-141</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>745</v>
+        <v>1040</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-1488</v>
+        <v>-317</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" s="5" t="inlineStr">
+        <v>-16</v>
+      </c>
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>20-MAY-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1865,13 +1865,13 @@
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>845</v>
+        <v>1250</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1388</v>
+        <v>-107</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>30</v>
@@ -1882,9 +1882,9 @@
       <c r="I31" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J31" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J31" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,30 +1906,30 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1040</v>
+        <v>1250</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-1193</v>
+        <v>-107</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J32" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,17 +1951,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>650</v>
+        <v>1250</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1583</v>
+        <v>-107</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>30</v>
@@ -1972,9 +1972,9 @@
       <c r="I33" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J33" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J33" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>22-MAY-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,30 +1996,30 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>745</v>
+        <v>1495</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-1488</v>
+        <v>138</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>-16</v>
+      </c>
+      <c r="J34" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
@@ -2031,7 +2031,7 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
@@ -2041,30 +2041,30 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1495</v>
+        <v>1250</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>2233</v>
+        <v>1357</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-738</v>
+        <v>-107</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
@@ -2076,7 +2076,7 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>26-MAY-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
@@ -2090,13 +2090,13 @@
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>840</v>
+        <v>1495</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>1357</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-517</v>
+        <v>138</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>46</v>
@@ -2107,9 +2107,9 @@
       <c r="I36" s="2" t="n">
         <v>-16</v>
       </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>19-MAY-26</t>
+          <t>27-MAY-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
@@ -2131,438 +2131,33 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1250</v>
+        <v>490</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1357</v>
+        <v>577</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-107</v>
+        <v>-87</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>20-MAY-26</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>1040</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>-317</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J38" s="5" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>20-MAY-26</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-592</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>1167</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>-190</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>20-MAY-26</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-116</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>1495</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>1495</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>27-MAY-26</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>490</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>577</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>-87</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J46" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>

--- a/excel_routes/route_ELQ_CAI_threats.xlsx
+++ b/excel_routes/route_ELQ_CAI_threats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_030226_at_07.14\reports\excel_routes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODERED\LAB\Artifacts\outputs\run_generated_300126_at_05.16\reports\excel_routes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F66678E-DF43-4CF5-9D77-0D97332100E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE5CE41-FEA3-4DFB-B6EB-21FBB8DFC476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -60,49 +60,91 @@
     <t>Currency</t>
   </si>
   <si>
-    <t>07-FEB-26</t>
+    <t>31-JAN-26</t>
   </si>
   <si>
     <t>SM-428</t>
   </si>
   <si>
+    <t>EgyptAir MS-634</t>
+  </si>
+  <si>
+    <t>LOW THREAT</t>
+  </si>
+  <si>
+    <t>SAR</t>
+  </si>
+  <si>
+    <t>01-FEB-26</t>
+  </si>
+  <si>
+    <t>05-FEB-26</t>
+  </si>
+  <si>
+    <t>Air Arabia Egypt E5-592</t>
+  </si>
+  <si>
+    <t>12-FEB-26</t>
+  </si>
+  <si>
+    <t>Nesma Airlines NE-141</t>
+  </si>
+  <si>
+    <t>14-FEB-26</t>
+  </si>
+  <si>
+    <t>15-FEB-26</t>
+  </si>
+  <si>
+    <t>26-FEB-26</t>
+  </si>
+  <si>
+    <t>05-MAR-26</t>
+  </si>
+  <si>
+    <t>08-MAR-26</t>
+  </si>
+  <si>
+    <t>Nile Air NP-106</t>
+  </si>
+  <si>
+    <t>19-MAR-26</t>
+  </si>
+  <si>
+    <t>26-MAR-26</t>
+  </si>
+  <si>
+    <t>HIGH THREAT ALERT - NEED ACTION</t>
+  </si>
+  <si>
+    <t>MEDIUM THREAT - MONITOR</t>
+  </si>
+  <si>
+    <t>28-MAR-26</t>
+  </si>
+  <si>
     <t>Nile Air NP-116</t>
   </si>
   <si>
-    <t>LOW THREAT</t>
-  </si>
-  <si>
-    <t>SAR</t>
-  </si>
-  <si>
-    <t>Air Arabia Egypt E5-592</t>
-  </si>
-  <si>
-    <t>EgyptAir MS-634</t>
-  </si>
-  <si>
-    <t>08-FEB-26</t>
-  </si>
-  <si>
-    <t>12-FEB-26</t>
-  </si>
-  <si>
-    <t>14-FEB-26</t>
-  </si>
-  <si>
-    <t>Nesma Airlines NE-141</t>
-  </si>
-  <si>
-    <t>15-FEB-26</t>
-  </si>
-  <si>
-    <t>Nile Air NP-106</t>
-  </si>
-  <si>
-    <t>26-FEB-26</t>
-  </si>
-  <si>
-    <t>01-MAR-26</t>
+    <t>01-APR-26</t>
+  </si>
+  <si>
+    <t>03-APR-26</t>
+  </si>
+  <si>
+    <t>19-MAY-26</t>
+  </si>
+  <si>
+    <t>20-MAY-26</t>
+  </si>
+  <si>
+    <t>22-MAY-26</t>
+  </si>
+  <si>
+    <t>26-MAY-26</t>
+  </si>
+  <si>
+    <t>27-MAY-26</t>
   </si>
 </sst>
 </file>
@@ -129,7 +171,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +188,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD4EDDA"/>
         <bgColor rgb="FFD4EDDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8D7DA"/>
+        <bgColor rgb="FFF8D7DA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF3CD"/>
+        <bgColor rgb="FFFFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -176,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +239,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,7 +550,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +564,7 @@
     <col min="7" max="7" width="153.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,22 +614,22 @@
         <v>13</v>
       </c>
       <c r="D2" s="2">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="E2" s="2">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="F2" s="2">
-        <v>-47</v>
+        <v>193</v>
       </c>
       <c r="G2" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2">
         <v>30</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>14</v>
@@ -580,31 +640,31 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2">
-        <v>370</v>
+        <v>524</v>
       </c>
       <c r="E3" s="2">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="F3" s="2">
-        <v>-27</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2">
         <v>30</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>14</v>
@@ -615,31 +675,31 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>612</v>
+        <v>364</v>
       </c>
       <c r="E4" s="2">
-        <v>397</v>
+        <v>371</v>
       </c>
       <c r="F4" s="2">
-        <v>215</v>
+        <v>-7</v>
       </c>
       <c r="G4" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2">
         <v>30</v>
       </c>
       <c r="I4" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>14</v>
@@ -650,31 +710,31 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>612</v>
+        <v>400</v>
       </c>
       <c r="E5" s="2">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="F5" s="2">
-        <v>215</v>
+        <v>-22</v>
       </c>
       <c r="G5" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2">
         <v>30</v>
       </c>
       <c r="I5" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>14</v>
@@ -691,16 +751,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
         <v>401</v>
       </c>
       <c r="E6" s="2">
-        <v>517</v>
+        <v>422</v>
       </c>
       <c r="F6" s="2">
-        <v>-116</v>
+        <v>-21</v>
       </c>
       <c r="G6" s="2">
         <v>30</v>
@@ -720,31 +780,31 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
-        <v>732</v>
+        <v>400</v>
       </c>
       <c r="E7" s="2">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="F7" s="2">
-        <v>215</v>
+        <v>-73</v>
       </c>
       <c r="G7" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2">
         <v>30</v>
       </c>
       <c r="I7" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>14</v>
@@ -755,22 +815,22 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="E8" s="2">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="F8" s="2">
-        <v>-57</v>
+        <v>-66</v>
       </c>
       <c r="G8" s="2">
         <v>30</v>
@@ -790,22 +850,22 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="D9" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E9" s="2">
-        <v>457</v>
+        <v>473</v>
       </c>
       <c r="F9" s="2">
-        <v>-56</v>
+        <v>-73</v>
       </c>
       <c r="G9" s="2">
         <v>30</v>
@@ -825,31 +885,31 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2">
-        <v>407</v>
+        <v>612</v>
       </c>
       <c r="E10" s="2">
-        <v>457</v>
+        <v>397</v>
       </c>
       <c r="F10" s="2">
-        <v>-50</v>
+        <v>215</v>
       </c>
       <c r="G10" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2">
         <v>30</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>14</v>
@@ -860,22 +920,22 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>400</v>
+        <v>775</v>
       </c>
       <c r="E11" s="2">
-        <v>517</v>
+        <v>877</v>
       </c>
       <c r="F11" s="2">
-        <v>-117</v>
+        <v>-102</v>
       </c>
       <c r="G11" s="2">
         <v>30</v>
@@ -895,22 +955,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
-        <v>401</v>
+        <v>845</v>
       </c>
       <c r="E12" s="2">
-        <v>517</v>
+        <v>877</v>
       </c>
       <c r="F12" s="2">
-        <v>-116</v>
+        <v>-32</v>
       </c>
       <c r="G12" s="2">
         <v>30</v>
@@ -930,31 +990,31 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2">
-        <v>612</v>
+        <v>845</v>
       </c>
       <c r="E13" s="2">
-        <v>397</v>
+        <v>877</v>
       </c>
       <c r="F13" s="2">
-        <v>215</v>
+        <v>-32</v>
       </c>
       <c r="G13" s="2">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2">
         <v>30</v>
       </c>
       <c r="I13" s="2">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>14</v>
@@ -965,31 +1025,31 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2">
-        <v>415</v>
+        <v>1250</v>
       </c>
       <c r="E14" s="2">
-        <v>697</v>
+        <v>1357</v>
       </c>
       <c r="F14" s="2">
-        <v>-282</v>
+        <v>-107</v>
       </c>
       <c r="G14" s="2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2">
         <v>30</v>
       </c>
       <c r="I14" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>14</v>
@@ -1000,36 +1060,806 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
+        <v>1280</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F15" s="2">
+        <v>-77</v>
+      </c>
+      <c r="G15" s="2">
+        <v>30</v>
+      </c>
+      <c r="H15" s="2">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>887</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F16" s="2">
+        <v>-470</v>
+      </c>
+      <c r="G16" s="2">
+        <v>30</v>
+      </c>
+      <c r="H16" s="2">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2">
+        <v>950</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-407</v>
+      </c>
+      <c r="G17" s="2">
+        <v>30</v>
+      </c>
+      <c r="H17" s="2">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1081</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F18" s="2">
+        <v>-276</v>
+      </c>
+      <c r="G18" s="2">
+        <v>30</v>
+      </c>
+      <c r="H18" s="2">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>706</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1537</v>
+      </c>
+      <c r="F19" s="2">
+        <v>-831</v>
+      </c>
+      <c r="G19" s="2">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1080</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1537</v>
+      </c>
+      <c r="F20" s="2">
+        <v>-457</v>
+      </c>
+      <c r="G20" s="2">
+        <v>30</v>
+      </c>
+      <c r="H20" s="2">
+        <v>30</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>551</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2233</v>
+      </c>
+      <c r="F21" s="2">
+        <v>-1682</v>
+      </c>
+      <c r="G21" s="2">
+        <v>30</v>
+      </c>
+      <c r="H21" s="2">
+        <v>30</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="2">
+        <v>845</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2233</v>
+      </c>
+      <c r="F22" s="2">
+        <v>-1388</v>
+      </c>
+      <c r="G22" s="2">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2">
+        <v>30</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="2">
+        <v>950</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2233</v>
+      </c>
+      <c r="F23" s="2">
+        <v>-1283</v>
+      </c>
+      <c r="G23" s="2">
+        <v>30</v>
+      </c>
+      <c r="H23" s="2">
+        <v>30</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1040</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2233</v>
+      </c>
+      <c r="F24" s="2">
+        <v>-1193</v>
+      </c>
+      <c r="G24" s="2">
+        <v>46</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2">
         <v>650</v>
       </c>
-      <c r="E15" s="2">
-        <v>697</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-47</v>
-      </c>
-      <c r="G15" s="2">
-        <v>30</v>
-      </c>
-      <c r="H15" s="2">
-        <v>30</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="E25" s="2">
+        <v>2233</v>
+      </c>
+      <c r="F25" s="2">
+        <v>-1583</v>
+      </c>
+      <c r="G25" s="2">
+        <v>30</v>
+      </c>
+      <c r="H25" s="2">
+        <v>30</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="2">
+        <v>745</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2233</v>
+      </c>
+      <c r="F26" s="2">
+        <v>-1488</v>
+      </c>
+      <c r="G26" s="2">
+        <v>30</v>
+      </c>
+      <c r="H26" s="2">
+        <v>30</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1265</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2233</v>
+      </c>
+      <c r="F27" s="2">
+        <v>-968</v>
+      </c>
+      <c r="G27" s="2">
+        <v>46</v>
+      </c>
+      <c r="H27" s="2">
+        <v>30</v>
+      </c>
+      <c r="I27" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>840</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-517</v>
+      </c>
+      <c r="G28" s="2">
+        <v>46</v>
+      </c>
+      <c r="H28" s="2">
+        <v>30</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F29" s="2">
+        <v>-107</v>
+      </c>
+      <c r="G29" s="2">
+        <v>30</v>
+      </c>
+      <c r="H29" s="2">
+        <v>30</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1040</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F30" s="2">
+        <v>-317</v>
+      </c>
+      <c r="G30" s="2">
+        <v>46</v>
+      </c>
+      <c r="H30" s="2">
+        <v>30</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F31" s="2">
+        <v>-107</v>
+      </c>
+      <c r="G31" s="2">
+        <v>30</v>
+      </c>
+      <c r="H31" s="2">
+        <v>30</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E32" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F32" s="2">
+        <v>-107</v>
+      </c>
+      <c r="G32" s="2">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>30</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F33" s="2">
+        <v>-107</v>
+      </c>
+      <c r="G33" s="2">
+        <v>30</v>
+      </c>
+      <c r="H33" s="2">
+        <v>30</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1495</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F34" s="2">
+        <v>138</v>
+      </c>
+      <c r="G34" s="2">
+        <v>46</v>
+      </c>
+      <c r="H34" s="2">
+        <v>30</v>
+      </c>
+      <c r="I34" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1250</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F35" s="2">
+        <v>-107</v>
+      </c>
+      <c r="G35" s="2">
+        <v>30</v>
+      </c>
+      <c r="H35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1495</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1357</v>
+      </c>
+      <c r="F36" s="2">
+        <v>138</v>
+      </c>
+      <c r="G36" s="2">
+        <v>46</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>490</v>
+      </c>
+      <c r="E37" s="2">
+        <v>577</v>
+      </c>
+      <c r="F37" s="2">
+        <v>-87</v>
+      </c>
+      <c r="G37" s="2">
+        <v>46</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2">
+        <v>-16</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/excel_routes/route_ELQ_CAI_threats.xlsx
+++ b/excel_routes/route_ELQ_CAI_threats.xlsx
@@ -48,6 +48,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FFF3CD"/>
+        <bgColor rgb="00FFF3CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
       </patternFill>
@@ -56,12 +62,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00F8D7DA"/>
         <bgColor rgb="00F8D7DA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>577</v>
+        <v>997</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-27</v>
+        <v>-347</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K2" s="2" t="inlineStr">
@@ -605,26 +605,26 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>577</v>
+        <v>997</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>100</v>
+        <v>-332</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J3" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
@@ -646,17 +646,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>637</v>
+        <v>697</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-87</v>
+        <v>-118</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30</v>
@@ -667,7 +667,7 @@
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J4" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -698,10 +698,10 @@
         <v>600</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>637</v>
+        <v>697</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-37</v>
+        <v>-97</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30</v>
@@ -712,7 +712,7 @@
       <c r="I5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J5" s="3" t="inlineStr">
+      <c r="J5" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>577</v>
+        <v>697</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-27</v>
+        <v>-97</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30</v>
@@ -757,7 +757,7 @@
       <c r="I6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="3" t="inlineStr">
+      <c r="J6" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -771,7 +771,7 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>28-FEB-26</t>
+          <t>01-MAR-26</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
@@ -781,28 +781,28 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>757</v>
+        <v>600</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>637</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>120</v>
+        <v>-37</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -816,7 +816,7 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
@@ -826,17 +826,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>550</v>
+        <v>650</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>577</v>
+        <v>787</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-27</v>
+        <v>-137</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>30</v>
@@ -847,7 +847,7 @@
       <c r="I8" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="3" t="inlineStr">
+      <c r="J8" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -861,7 +861,7 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>01-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
@@ -871,28 +871,28 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-306</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>743</v>
+        <v>650</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>577</v>
+        <v>787</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>166</v>
+        <v>-137</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J9" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -906,7 +906,7 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>05-MAR-26</t>
+          <t>07-MAR-26</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
@@ -916,28 +916,28 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>878</v>
+        <v>745</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>181</v>
+        <v>-42</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J10" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -961,28 +961,28 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>878</v>
+        <v>759</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>181</v>
+        <v>-28</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J11" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1010,13 +1010,13 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>745</v>
+        <v>650</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>787</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-42</v>
+        <v>-137</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1027,7 +1027,7 @@
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="inlineStr">
+      <c r="J12" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1051,17 +1051,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nile Air NP-306</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>745</v>
+        <v>650</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>787</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-42</v>
+        <v>-137</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>30</v>
@@ -1072,7 +1072,7 @@
       <c r="I13" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="3" t="inlineStr">
+      <c r="J13" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1096,28 +1096,28 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>1016</v>
+        <v>745</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>787</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>229</v>
+        <v>-42</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J14" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1131,7 +1131,7 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>19-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1071</v>
+        <v>828</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1177</v>
+        <v>877</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-106</v>
+        <v>-49</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30</v>
@@ -1162,7 +1162,7 @@
       <c r="I15" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="inlineStr">
+      <c r="J15" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1176,7 +1176,7 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>21-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
@@ -1186,17 +1186,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>964</v>
+        <v>845</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>997</v>
+        <v>877</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-33</v>
+        <v>-32</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>30</v>
@@ -1207,7 +1207,7 @@
       <c r="I16" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="3" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1221,7 +1221,7 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>12-MAR-26</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
@@ -1231,17 +1231,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>1250</v>
+        <v>845</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2233</v>
+        <v>877</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-983</v>
+        <v>-32</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="J17" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>SM-428</t>
+          <t>SM-968</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1280,13 +1280,13 @@
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1251</v>
+        <v>845</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2233</v>
+        <v>997</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-982</v>
+        <v>-152</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>30</v>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="J18" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1311,40 +1311,40 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>22-MAR-26</t>
+          <t>13-MAR-26</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>SM-428</t>
+          <t>SM-968</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1765</v>
+        <v>950</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2233</v>
+        <v>997</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-468</v>
+        <v>-47</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J19" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1356,7 +1356,7 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>26-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
@@ -1370,13 +1370,13 @@
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="E20" s="2" t="n">
         <v>877</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-87</v>
+        <v>-44</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1387,7 +1387,7 @@
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="3" t="inlineStr">
+      <c r="J20" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1401,7 +1401,7 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>28-MAR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
@@ -1411,17 +1411,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>833</v>
+        <v>845</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>877</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-44</v>
+        <v>-32</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1432,7 +1432,7 @@
       <c r="I21" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J21" s="3" t="inlineStr">
+      <c r="J21" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1446,7 +1446,7 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
@@ -1456,17 +1456,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>959</v>
+        <v>845</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2233</v>
+        <v>877</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1274</v>
+        <v>-32</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="J22" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1491,7 +1491,7 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>14-MAR-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
@@ -1501,17 +1501,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1080</v>
+        <v>845</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2233</v>
+        <v>877</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-1153</v>
+        <v>-32</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="J23" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>01-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
@@ -1546,30 +1546,30 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-306</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1495</v>
+        <v>845</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2233</v>
+        <v>997</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-738</v>
+        <v>-152</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J24" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1581,7 +1581,7 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-116</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1080</v>
+        <v>950</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1777</v>
+        <v>997</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-697</v>
+        <v>-47</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>30</v>
@@ -1614,7 +1614,7 @@
       </c>
       <c r="J25" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>15-MAR-26</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
@@ -1636,17 +1636,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-106</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1080</v>
+        <v>950</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1777</v>
+        <v>997</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-697</v>
+        <v>-47</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>30</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="J26" s="4" t="inlineStr">
         <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>03-APR-26</t>
+          <t>19-MAR-26</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
@@ -1681,30 +1681,30 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1765</v>
+        <v>1071</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1777</v>
+        <v>1177</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-12</v>
+        <v>-106</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J27" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J27" s="4" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1716,7 +1716,7 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>08-APR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
@@ -1726,30 +1726,30 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>533</v>
+        <v>950</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>350</v>
+        <v>1177</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>183</v>
+        <v>-227</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J28" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1761,7 +1761,7 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>10-APR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
@@ -1771,30 +1771,30 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>533</v>
+        <v>964</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>397</v>
+        <v>1177</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>136</v>
+        <v>-213</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
-          <t>LOW THREAT</t>
+          <t>MEDIUM THREAT - MONITOR</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
@@ -1806,7 +1806,7 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>15-APR-26</t>
+          <t>21-MAR-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>Nile Air NP-116</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>349</v>
+        <v>1080</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>350</v>
+        <v>1177</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-1</v>
+        <v>-97</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>30</v>
@@ -1837,7 +1837,7 @@
       <c r="I30" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="3" t="inlineStr">
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
@@ -1851,7 +1851,7 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>15-APR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
@@ -1861,30 +1861,30 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nile Air NP-106</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>413</v>
+        <v>1450</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>350</v>
+        <v>2233</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>63</v>
+        <v>-783</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J31" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>17-APR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
@@ -1906,30 +1906,30 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Nesma Airlines NE-141</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>413</v>
+        <v>1451</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>328</v>
+        <v>2233</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>85</v>
+        <v>-782</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J32" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>22-APR-26</t>
+          <t>22-MAR-26</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
@@ -1951,30 +1951,30 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-592</t>
+          <t>EgyptAir MS-634</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>349</v>
+        <v>1765</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>350</v>
+        <v>2233</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-1</v>
+        <v>-468</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
+        <v>-16</v>
+      </c>
+      <c r="J33" s="5" t="inlineStr">
+        <is>
+          <t>HIGH THREAT ALERT - NEED ACTION</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
@@ -1986,7 +1986,7 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>01-MAY-26</t>
+          <t>26-MAR-26</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
@@ -1996,1203 +1996,33 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-634</t>
+          <t>Air Arabia Egypt E5-592</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>413</v>
+        <v>959</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>328</v>
+        <v>997</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>85</v>
+        <v>-38</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J34" s="3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J34" s="4" t="inlineStr">
         <is>
           <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="inlineStr">
-        <is>
-          <t>13-MAY-26</t>
-        </is>
-      </c>
-      <c r="B35" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>490</v>
-      </c>
-      <c r="E35" s="2" t="n">
-        <v>350</v>
-      </c>
-      <c r="F35" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="G35" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>19-MAY-26</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E36" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F36" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>19-MAY-26</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>1265</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>-92</v>
-      </c>
-      <c r="G37" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>20-MAY-26</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-592</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>888</v>
-      </c>
-      <c r="E38" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F38" s="2" t="n">
-        <v>-469</v>
-      </c>
-      <c r="G38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="4" t="inlineStr">
-        <is>
-          <t>HIGH THREAT ALERT - NEED ACTION</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>20-MAY-26</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D39" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E39" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F39" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>20-MAY-26</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="n">
-        <v>1265</v>
-      </c>
-      <c r="E40" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F40" s="2" t="n">
-        <v>-92</v>
-      </c>
-      <c r="G40" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H40" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J40" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K40" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D41" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E41" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F41" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H41" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K41" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C42" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-116</t>
-        </is>
-      </c>
-      <c r="D42" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E42" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>-107</v>
-      </c>
-      <c r="G42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H42" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="inlineStr">
-        <is>
-          <t>22-MAY-26</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C43" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>1495</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="G43" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H43" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J43" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>26-MAY-26</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D44" s="2" t="n">
-        <v>1495</v>
-      </c>
-      <c r="E44" s="2" t="n">
-        <v>1357</v>
-      </c>
-      <c r="F44" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="G44" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H44" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J44" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="inlineStr">
-        <is>
-          <t>02-JUN-26</t>
-        </is>
-      </c>
-      <c r="B45" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C45" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D45" s="2" t="n">
-        <v>415</v>
-      </c>
-      <c r="E45" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>-282</v>
-      </c>
-      <c r="G45" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H45" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>02-JUN-26</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E46" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>-97</v>
-      </c>
-      <c r="G46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H46" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>03-JUN-26</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-592</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>379</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>-318</v>
-      </c>
-      <c r="G47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H47" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="inlineStr">
-        <is>
-          <t>03-JUN-26</t>
-        </is>
-      </c>
-      <c r="B48" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E48" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F48" s="2" t="n">
-        <v>-97</v>
-      </c>
-      <c r="G48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K48" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="inlineStr">
-        <is>
-          <t>05-JUN-26</t>
-        </is>
-      </c>
-      <c r="B49" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C49" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="n">
-        <v>415</v>
-      </c>
-      <c r="E49" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F49" s="2" t="n">
-        <v>-282</v>
-      </c>
-      <c r="G49" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H49" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K49" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>05-JUN-26</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>-97</v>
-      </c>
-      <c r="G50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H50" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K50" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="inlineStr">
-        <is>
-          <t>05-JUN-26</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C51" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-116</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E51" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F51" s="2" t="n">
-        <v>-97</v>
-      </c>
-      <c r="G51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H51" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>09-JUN-26</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>415</v>
-      </c>
-      <c r="E52" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F52" s="2" t="n">
-        <v>-282</v>
-      </c>
-      <c r="G52" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="H52" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I52" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J52" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>09-JUN-26</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C53" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D53" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E53" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>-97</v>
-      </c>
-      <c r="G53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H53" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="inlineStr">
-        <is>
-          <t>10-JUN-26</t>
-        </is>
-      </c>
-      <c r="B54" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-592</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="n">
-        <v>379</v>
-      </c>
-      <c r="E54" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F54" s="2" t="n">
-        <v>-318</v>
-      </c>
-      <c r="G54" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H54" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>10-JUN-26</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C55" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D55" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E55" s="2" t="n">
-        <v>697</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>-97</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H55" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>17-JUN-26</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>Air Arabia Egypt E5-592</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="n">
-        <v>379</v>
-      </c>
-      <c r="E56" s="2" t="n">
-        <v>397</v>
-      </c>
-      <c r="F56" s="2" t="n">
-        <v>-18</v>
-      </c>
-      <c r="G56" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H56" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="inlineStr">
-        <is>
-          <t>19-JUN-26</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-116</t>
-        </is>
-      </c>
-      <c r="D57" s="2" t="n">
-        <v>600</v>
-      </c>
-      <c r="E57" s="2" t="n">
-        <v>637</v>
-      </c>
-      <c r="F57" s="2" t="n">
-        <v>-37</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H57" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>26-JUN-26</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-116</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E58" s="2" t="n">
-        <v>1537</v>
-      </c>
-      <c r="F58" s="2" t="n">
-        <v>-287</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H58" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>26-JUN-26</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Nile Air NP-106</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>1250</v>
-      </c>
-      <c r="E59" s="2" t="n">
-        <v>1537</v>
-      </c>
-      <c r="F59" s="2" t="n">
-        <v>-287</v>
-      </c>
-      <c r="G59" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="H59" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" s="5" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>26-JUN-26</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>SM-428</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-634</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>1765</v>
-      </c>
-      <c r="E60" s="2" t="n">
-        <v>1537</v>
-      </c>
-      <c r="F60" s="2" t="n">
-        <v>228</v>
-      </c>
-      <c r="G60" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H60" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J60" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
